--- a/DestroyViruses/Assets/Tables/TableFireSpeed.xlsx
+++ b/DestroyViruses/Assets/Tables/TableFireSpeed.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19560" windowHeight="9660"/>
+    <workbookView windowWidth="29655" windowHeight="17070"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
   <si>
     <t>id</t>
   </si>
@@ -27,13 +27,10 @@
     <t>upcost</t>
   </si>
   <si>
-    <t>string</t>
+    <t>int</t>
   </si>
   <si>
     <t>float</t>
-  </si>
-  <si>
-    <t>int</t>
   </si>
   <si>
     <t>ID（等级）</t>
@@ -52,8 +49,8 @@
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -64,21 +61,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -87,52 +69,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -154,34 +92,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -194,6 +108,74 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -202,7 +184,22 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -217,187 +214,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -426,21 +423,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -452,20 +434,24 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -485,17 +471,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -508,16 +494,27 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -526,133 +523,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1009,7 +1006,7 @@
   <dimension ref="A1:C46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -1037,18 +1034,18 @@
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
         <v>6</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>7</v>
-      </c>
-      <c r="C3" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:3">

--- a/DestroyViruses/Assets/Tables/TableFireSpeed.xlsx
+++ b/DestroyViruses/Assets/Tables/TableFireSpeed.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="29655" windowHeight="17070"/>
+    <workbookView windowWidth="27510" windowHeight="13905"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -52,7 +52,7 @@
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -61,16 +61,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -84,13 +83,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -99,6 +91,87 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -107,6 +180,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -115,91 +205,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -214,25 +220,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -244,13 +346,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -262,139 +376,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -405,6 +411,30 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -427,7 +457,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -435,23 +465,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -488,15 +503,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -511,10 +517,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -523,138 +529,139 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1005,520 +1012,522 @@
   <sheetPr/>
   <dimension ref="A1:C46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4:B46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="2"/>
   <cols>
-    <col min="2" max="2" width="12.125" customWidth="1"/>
-    <col min="3" max="3" width="13.875" customWidth="1"/>
+    <col min="1" max="1" width="9" style="1"/>
+    <col min="2" max="2" width="12.125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="13.875" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" t="s">
+      <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="1" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4">
+      <c r="A4" s="1">
         <v>1</v>
       </c>
-      <c r="B4">
-        <v>50</v>
-      </c>
-      <c r="C4">
-        <v>5130</v>
+      <c r="B4" s="1">
+        <v>15</v>
+      </c>
+      <c r="C4" s="1">
+        <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5">
+      <c r="A5" s="1">
         <v>2</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="1">
+        <v>30</v>
+      </c>
+      <c r="C5" s="1">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="1">
+        <v>3</v>
+      </c>
+      <c r="B6" s="1">
+        <v>45</v>
+      </c>
+      <c r="C6" s="1">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="1">
+        <v>4</v>
+      </c>
+      <c r="B7" s="1">
         <v>60</v>
       </c>
-      <c r="C5">
-        <v>10260</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6">
-        <v>3</v>
-      </c>
-      <c r="B6">
-        <v>70</v>
-      </c>
-      <c r="C6">
-        <v>15390</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7">
-        <v>4</v>
-      </c>
-      <c r="B7">
-        <v>80</v>
-      </c>
-      <c r="C7">
-        <v>20520</v>
+      <c r="C7" s="1">
+        <v>240</v>
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8">
+      <c r="A8" s="1">
         <v>5</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="1">
+        <v>75</v>
+      </c>
+      <c r="C8" s="1">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="1">
+        <v>6</v>
+      </c>
+      <c r="B9" s="1">
         <v>90</v>
       </c>
-      <c r="C8">
-        <v>25650</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9">
-        <v>6</v>
-      </c>
-      <c r="B9">
-        <v>100</v>
-      </c>
-      <c r="C9">
-        <v>30780</v>
+      <c r="C9" s="1">
+        <v>360</v>
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10">
+      <c r="A10" s="1">
         <v>7</v>
       </c>
-      <c r="B10">
-        <v>110</v>
-      </c>
-      <c r="C10">
-        <v>35910</v>
+      <c r="B10" s="1">
+        <v>105</v>
+      </c>
+      <c r="C10" s="1">
+        <v>420</v>
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11">
+      <c r="A11" s="1">
         <v>8</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="1">
         <v>120</v>
       </c>
-      <c r="C11">
-        <v>41040</v>
+      <c r="C11" s="1">
+        <v>480</v>
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12">
+      <c r="A12" s="1">
         <v>9</v>
       </c>
-      <c r="B12">
-        <v>130</v>
-      </c>
-      <c r="C12">
-        <v>46170</v>
+      <c r="B12" s="1">
+        <v>135</v>
+      </c>
+      <c r="C12" s="1">
+        <v>540</v>
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13">
+      <c r="A13" s="1">
         <v>10</v>
       </c>
-      <c r="B13">
-        <v>140</v>
-      </c>
-      <c r="C13">
-        <v>51300</v>
+      <c r="B13" s="1">
+        <v>150</v>
+      </c>
+      <c r="C13" s="1">
+        <v>600</v>
       </c>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14">
+      <c r="A14" s="1">
         <v>11</v>
       </c>
-      <c r="B14">
-        <v>150</v>
-      </c>
-      <c r="C14">
-        <v>56430</v>
+      <c r="B14" s="1">
+        <v>165</v>
+      </c>
+      <c r="C14" s="1">
+        <v>660</v>
       </c>
     </row>
     <row r="15" spans="1:3">
-      <c r="A15">
+      <c r="A15" s="1">
         <v>12</v>
       </c>
-      <c r="B15">
-        <v>160</v>
-      </c>
-      <c r="C15">
-        <v>61560</v>
+      <c r="B15" s="1">
+        <v>180</v>
+      </c>
+      <c r="C15" s="1">
+        <v>720</v>
       </c>
     </row>
     <row r="16" spans="1:3">
-      <c r="A16">
+      <c r="A16" s="1">
         <v>13</v>
       </c>
-      <c r="B16">
-        <v>170</v>
-      </c>
-      <c r="C16">
-        <v>66690</v>
+      <c r="B16" s="1">
+        <v>195</v>
+      </c>
+      <c r="C16" s="1">
+        <v>780</v>
       </c>
     </row>
     <row r="17" spans="1:3">
-      <c r="A17">
+      <c r="A17" s="1">
         <v>14</v>
       </c>
-      <c r="B17">
-        <v>180</v>
-      </c>
-      <c r="C17">
-        <v>71820</v>
+      <c r="B17" s="1">
+        <v>210</v>
+      </c>
+      <c r="C17" s="1">
+        <v>840</v>
       </c>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18">
+      <c r="A18" s="1">
         <v>15</v>
       </c>
-      <c r="B18">
-        <v>190</v>
-      </c>
-      <c r="C18">
-        <v>76950</v>
+      <c r="B18" s="1">
+        <v>225</v>
+      </c>
+      <c r="C18" s="1">
+        <v>900</v>
       </c>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19">
+      <c r="A19" s="1">
         <v>16</v>
       </c>
-      <c r="B19">
-        <v>200</v>
-      </c>
-      <c r="C19">
-        <v>82080</v>
+      <c r="B19" s="1">
+        <v>240</v>
+      </c>
+      <c r="C19" s="1">
+        <v>960</v>
       </c>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20">
+      <c r="A20" s="1">
         <v>17</v>
       </c>
-      <c r="B20">
-        <v>210</v>
-      </c>
-      <c r="C20">
-        <v>87210</v>
+      <c r="B20" s="1">
+        <v>255</v>
+      </c>
+      <c r="C20" s="1">
+        <v>1020</v>
       </c>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21">
+      <c r="A21" s="1">
         <v>18</v>
       </c>
-      <c r="B21">
-        <v>220</v>
-      </c>
-      <c r="C21">
-        <v>92340</v>
+      <c r="B21" s="1">
+        <v>270</v>
+      </c>
+      <c r="C21" s="1">
+        <v>1080</v>
       </c>
     </row>
     <row r="22" spans="1:3">
-      <c r="A22">
+      <c r="A22" s="1">
         <v>19</v>
       </c>
-      <c r="B22">
-        <v>230</v>
-      </c>
-      <c r="C22">
-        <v>97470</v>
+      <c r="B22" s="1">
+        <v>285</v>
+      </c>
+      <c r="C22" s="1">
+        <v>1140</v>
       </c>
     </row>
     <row r="23" spans="1:3">
-      <c r="A23">
+      <c r="A23" s="1">
         <v>20</v>
       </c>
-      <c r="B23">
-        <v>240</v>
-      </c>
-      <c r="C23">
-        <v>102600</v>
+      <c r="B23" s="1">
+        <v>300</v>
+      </c>
+      <c r="C23" s="1">
+        <v>1200</v>
       </c>
     </row>
     <row r="24" spans="1:3">
-      <c r="A24">
+      <c r="A24" s="1">
         <v>21</v>
       </c>
-      <c r="B24">
-        <v>250</v>
-      </c>
-      <c r="C24">
-        <v>107730</v>
+      <c r="B24" s="1">
+        <v>315</v>
+      </c>
+      <c r="C24" s="1">
+        <v>1260</v>
       </c>
     </row>
     <row r="25" spans="1:3">
-      <c r="A25">
+      <c r="A25" s="1">
         <v>22</v>
       </c>
-      <c r="B25">
-        <v>260</v>
-      </c>
-      <c r="C25">
-        <v>112860</v>
+      <c r="B25" s="1">
+        <v>330</v>
+      </c>
+      <c r="C25" s="1">
+        <v>1320</v>
       </c>
     </row>
     <row r="26" spans="1:3">
-      <c r="A26">
+      <c r="A26" s="1">
         <v>23</v>
       </c>
-      <c r="B26">
-        <v>270</v>
-      </c>
-      <c r="C26">
-        <v>117990</v>
+      <c r="B26" s="1">
+        <v>345</v>
+      </c>
+      <c r="C26" s="1">
+        <v>1380</v>
       </c>
     </row>
     <row r="27" spans="1:3">
-      <c r="A27">
+      <c r="A27" s="1">
         <v>24</v>
       </c>
-      <c r="B27">
-        <v>280</v>
-      </c>
-      <c r="C27">
-        <v>123120</v>
+      <c r="B27" s="1">
+        <v>360</v>
+      </c>
+      <c r="C27" s="1">
+        <v>1440</v>
       </c>
     </row>
     <row r="28" spans="1:3">
-      <c r="A28">
+      <c r="A28" s="1">
         <v>25</v>
       </c>
-      <c r="B28">
-        <v>290</v>
-      </c>
-      <c r="C28">
-        <v>128250</v>
+      <c r="B28" s="1">
+        <v>375</v>
+      </c>
+      <c r="C28" s="1">
+        <v>1500</v>
       </c>
     </row>
     <row r="29" spans="1:3">
-      <c r="A29">
+      <c r="A29" s="1">
         <v>26</v>
       </c>
-      <c r="B29">
-        <v>300</v>
-      </c>
-      <c r="C29">
-        <v>133380</v>
+      <c r="B29" s="1">
+        <v>390</v>
+      </c>
+      <c r="C29" s="1">
+        <v>1560</v>
       </c>
     </row>
     <row r="30" spans="1:3">
-      <c r="A30">
+      <c r="A30" s="1">
         <v>27</v>
       </c>
-      <c r="B30">
-        <v>310</v>
-      </c>
-      <c r="C30">
-        <v>138510</v>
+      <c r="B30" s="1">
+        <v>405</v>
+      </c>
+      <c r="C30" s="1">
+        <v>1620</v>
       </c>
     </row>
     <row r="31" spans="1:3">
-      <c r="A31">
+      <c r="A31" s="1">
         <v>28</v>
       </c>
-      <c r="B31">
-        <v>320</v>
-      </c>
-      <c r="C31">
-        <v>143640</v>
+      <c r="B31" s="1">
+        <v>420</v>
+      </c>
+      <c r="C31" s="1">
+        <v>1680</v>
       </c>
     </row>
     <row r="32" spans="1:3">
-      <c r="A32">
+      <c r="A32" s="1">
         <v>29</v>
       </c>
-      <c r="B32">
-        <v>330</v>
-      </c>
-      <c r="C32">
-        <v>148770</v>
+      <c r="B32" s="1">
+        <v>435</v>
+      </c>
+      <c r="C32" s="1">
+        <v>1740</v>
       </c>
     </row>
     <row r="33" spans="1:3">
-      <c r="A33">
+      <c r="A33" s="1">
         <v>30</v>
       </c>
-      <c r="B33">
-        <v>340</v>
-      </c>
-      <c r="C33">
-        <v>153900</v>
+      <c r="B33" s="1">
+        <v>450</v>
+      </c>
+      <c r="C33" s="1">
+        <v>1800</v>
       </c>
     </row>
     <row r="34" spans="1:3">
-      <c r="A34">
+      <c r="A34" s="1">
         <v>31</v>
       </c>
-      <c r="B34">
-        <v>350</v>
-      </c>
-      <c r="C34">
-        <v>159030</v>
+      <c r="B34" s="1">
+        <v>465</v>
+      </c>
+      <c r="C34" s="1">
+        <v>1860</v>
       </c>
     </row>
     <row r="35" spans="1:3">
-      <c r="A35">
+      <c r="A35" s="1">
         <v>32</v>
       </c>
-      <c r="B35">
-        <v>360</v>
-      </c>
-      <c r="C35">
-        <v>164160</v>
+      <c r="B35" s="1">
+        <v>480</v>
+      </c>
+      <c r="C35" s="1">
+        <v>1920</v>
       </c>
     </row>
     <row r="36" spans="1:3">
-      <c r="A36">
+      <c r="A36" s="1">
         <v>33</v>
       </c>
-      <c r="B36">
-        <v>370</v>
-      </c>
-      <c r="C36">
-        <v>169290</v>
+      <c r="B36" s="1">
+        <v>495</v>
+      </c>
+      <c r="C36" s="1">
+        <v>1980</v>
       </c>
     </row>
     <row r="37" spans="1:3">
-      <c r="A37">
+      <c r="A37" s="1">
         <v>34</v>
       </c>
-      <c r="B37">
-        <v>380</v>
-      </c>
-      <c r="C37">
-        <v>174420</v>
+      <c r="B37" s="1">
+        <v>510</v>
+      </c>
+      <c r="C37" s="1">
+        <v>2040</v>
       </c>
     </row>
     <row r="38" spans="1:3">
-      <c r="A38">
+      <c r="A38" s="1">
         <v>35</v>
       </c>
-      <c r="B38">
-        <v>390</v>
-      </c>
-      <c r="C38">
-        <v>179550</v>
+      <c r="B38" s="1">
+        <v>525</v>
+      </c>
+      <c r="C38" s="1">
+        <v>2100</v>
       </c>
     </row>
     <row r="39" spans="1:3">
-      <c r="A39">
+      <c r="A39" s="1">
         <v>36</v>
       </c>
-      <c r="B39">
-        <v>400</v>
-      </c>
-      <c r="C39">
-        <v>184680</v>
+      <c r="B39" s="1">
+        <v>540</v>
+      </c>
+      <c r="C39" s="1">
+        <v>2160</v>
       </c>
     </row>
     <row r="40" spans="1:3">
-      <c r="A40">
+      <c r="A40" s="1">
         <v>37</v>
       </c>
-      <c r="B40">
-        <v>410</v>
-      </c>
-      <c r="C40">
-        <v>189810</v>
+      <c r="B40" s="1">
+        <v>555</v>
+      </c>
+      <c r="C40" s="1">
+        <v>2220</v>
       </c>
     </row>
     <row r="41" spans="1:3">
-      <c r="A41">
+      <c r="A41" s="1">
         <v>38</v>
       </c>
-      <c r="B41">
-        <v>420</v>
-      </c>
-      <c r="C41">
-        <v>194940</v>
+      <c r="B41" s="1">
+        <v>570</v>
+      </c>
+      <c r="C41" s="1">
+        <v>2280</v>
       </c>
     </row>
     <row r="42" spans="1:3">
-      <c r="A42">
+      <c r="A42" s="1">
         <v>39</v>
       </c>
-      <c r="B42">
-        <v>430</v>
-      </c>
-      <c r="C42">
-        <v>200070</v>
+      <c r="B42" s="1">
+        <v>585</v>
+      </c>
+      <c r="C42" s="1">
+        <v>2340</v>
       </c>
     </row>
     <row r="43" spans="1:3">
-      <c r="A43">
+      <c r="A43" s="1">
         <v>40</v>
       </c>
-      <c r="B43">
-        <v>440</v>
-      </c>
-      <c r="C43">
-        <v>205200</v>
+      <c r="B43" s="1">
+        <v>600</v>
+      </c>
+      <c r="C43" s="1">
+        <v>2400</v>
       </c>
     </row>
     <row r="44" spans="1:3">
-      <c r="A44">
+      <c r="A44" s="1">
         <v>41</v>
       </c>
-      <c r="B44">
-        <v>450</v>
-      </c>
-      <c r="C44">
-        <v>210330</v>
+      <c r="B44" s="1">
+        <v>615</v>
+      </c>
+      <c r="C44" s="1">
+        <v>2460</v>
       </c>
     </row>
     <row r="45" spans="1:3">
-      <c r="A45">
+      <c r="A45" s="1">
         <v>42</v>
       </c>
-      <c r="B45">
-        <v>460</v>
-      </c>
-      <c r="C45">
-        <v>215460</v>
+      <c r="B45" s="1">
+        <v>630</v>
+      </c>
+      <c r="C45" s="1">
+        <v>2520</v>
       </c>
     </row>
     <row r="46" spans="1:3">
-      <c r="A46">
+      <c r="A46" s="1">
         <v>43</v>
       </c>
-      <c r="B46">
-        <v>470</v>
-      </c>
-      <c r="C46">
-        <v>220590</v>
+      <c r="B46" s="1">
+        <v>645</v>
+      </c>
+      <c r="C46" s="1">
+        <v>2580</v>
       </c>
     </row>
   </sheetData>

--- a/DestroyViruses/Assets/Tables/TableFireSpeed.xlsx
+++ b/DestroyViruses/Assets/Tables/TableFireSpeed.xlsx
@@ -4,24 +4,27 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27510" windowHeight="13905"/>
+    <workbookView windowWidth="24560" windowHeight="8360"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10">
   <si>
     <t>id</t>
   </si>
   <si>
     <t>fireSpeed</t>
+  </si>
+  <si>
+    <t>bulletSpeed</t>
   </si>
   <si>
     <t>upcost</t>
@@ -39,6 +42,9 @@
     <t>开火速度(发/秒)</t>
   </si>
   <si>
+    <t>子弹飞行速度 像素/秒</t>
+  </si>
+  <si>
     <t>升级消耗</t>
   </si>
 </sst>
@@ -47,10 +53,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -67,6 +73,35 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -75,11 +110,57 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -91,6 +172,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -100,89 +189,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -196,16 +203,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -220,187 +226,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -411,6 +417,15 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -453,24 +468,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -482,6 +479,17 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -503,159 +511,157 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -665,54 +671,54 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
+    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
+    <cellStyle name="输入" xfId="4" builtinId="20"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
+    <cellStyle name="货币" xfId="7" builtinId="4"/>
+    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
+    <cellStyle name="百分比" xfId="9" builtinId="5"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
+    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
+    <cellStyle name="计算" xfId="15" builtinId="22"/>
+    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
+    <cellStyle name="适中" xfId="17" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
+    <cellStyle name="好" xfId="19" builtinId="26"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="差" xfId="22" builtinId="27"/>
+    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
     <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
+    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
+    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
+    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
+    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
+    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
+    <cellStyle name="标题" xfId="33" builtinId="15"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
+    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="注释" xfId="37" builtinId="10"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
+    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
+    <cellStyle name="超链接" xfId="41" builtinId="8"/>
+    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
+    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
     <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
     <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
+    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1008,23 +1014,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:C46"/>
+  <dimension ref="A1:J46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:B46"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="12.125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="13.875" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="9" style="1"/>
+    <col min="2" max="3" width="12.125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="13.875" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1034,511 +1040,652 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
+        <v>8</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="1">
         <v>1</v>
       </c>
       <c r="B4" s="1">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C4" s="1">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+        <v>3000</v>
+      </c>
+      <c r="D4" s="1">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="1">
         <v>2</v>
       </c>
       <c r="B5" s="1">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="C5" s="1">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
+        <v>3010</v>
+      </c>
+      <c r="D5" s="1">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" s="1">
         <v>3</v>
       </c>
       <c r="B6" s="1">
-        <v>45</v>
+        <v>22</v>
       </c>
       <c r="C6" s="1">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
+        <v>3022</v>
+      </c>
+      <c r="D6" s="1">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" s="1">
         <v>4</v>
       </c>
       <c r="B7" s="1">
-        <v>60</v>
+        <v>23</v>
       </c>
       <c r="C7" s="1">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+        <v>3034</v>
+      </c>
+      <c r="D7" s="1">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" s="1">
         <v>5</v>
       </c>
       <c r="B8" s="1">
-        <v>75</v>
+        <v>24</v>
       </c>
       <c r="C8" s="1">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
+        <v>3046</v>
+      </c>
+      <c r="D8" s="1">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" s="1">
         <v>6</v>
       </c>
       <c r="B9" s="1">
-        <v>90</v>
+        <v>25</v>
       </c>
       <c r="C9" s="1">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
+        <v>3058</v>
+      </c>
+      <c r="D9" s="1">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="1">
         <v>7</v>
       </c>
       <c r="B10" s="1">
-        <v>105</v>
+        <v>26</v>
       </c>
       <c r="C10" s="1">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
+        <v>3070</v>
+      </c>
+      <c r="D10" s="1">
+        <v>702</v>
+      </c>
+      <c r="J10" s="1">
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11" s="1">
         <v>8</v>
       </c>
       <c r="B11" s="1">
-        <v>120</v>
+        <v>27</v>
       </c>
       <c r="C11" s="1">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
+        <v>3082</v>
+      </c>
+      <c r="D11" s="1">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" s="1">
         <v>9</v>
       </c>
       <c r="B12" s="1">
-        <v>135</v>
+        <v>28</v>
       </c>
       <c r="C12" s="1">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
+        <v>3094</v>
+      </c>
+      <c r="D12" s="1">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" s="1">
         <v>10</v>
       </c>
       <c r="B13" s="1">
-        <v>150</v>
+        <v>29</v>
       </c>
       <c r="C13" s="1">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
+        <v>3106</v>
+      </c>
+      <c r="D13" s="1">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" s="1">
         <v>11</v>
       </c>
       <c r="B14" s="1">
-        <v>165</v>
+        <v>30</v>
       </c>
       <c r="C14" s="1">
-        <v>660</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
+        <v>3118</v>
+      </c>
+      <c r="D14" s="1">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15" s="1">
         <v>12</v>
       </c>
       <c r="B15" s="1">
-        <v>180</v>
+        <v>31</v>
       </c>
       <c r="C15" s="1">
-        <v>720</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
+        <v>3130</v>
+      </c>
+      <c r="D15" s="1">
+        <v>1222</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16" s="1">
         <v>13</v>
       </c>
       <c r="B16" s="1">
-        <v>195</v>
+        <v>32</v>
       </c>
       <c r="C16" s="1">
-        <v>780</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
+        <v>3142</v>
+      </c>
+      <c r="D16" s="1">
+        <v>1332</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" s="1">
         <v>14</v>
       </c>
       <c r="B17" s="1">
-        <v>210</v>
+        <v>33</v>
       </c>
       <c r="C17" s="1">
-        <v>840</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
+        <v>3154</v>
+      </c>
+      <c r="D17" s="1">
+        <v>1444</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18" s="1">
         <v>15</v>
       </c>
       <c r="B18" s="1">
-        <v>225</v>
+        <v>34</v>
       </c>
       <c r="C18" s="1">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
+        <v>3166</v>
+      </c>
+      <c r="D18" s="1">
+        <v>1558</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19" s="1">
         <v>16</v>
       </c>
       <c r="B19" s="1">
-        <v>240</v>
+        <v>35</v>
       </c>
       <c r="C19" s="1">
-        <v>960</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
+        <v>3178</v>
+      </c>
+      <c r="D19" s="1">
+        <v>1674</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20" s="1">
         <v>17</v>
       </c>
       <c r="B20" s="1">
-        <v>255</v>
+        <v>36</v>
       </c>
       <c r="C20" s="1">
-        <v>1020</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
+        <v>3190</v>
+      </c>
+      <c r="D20" s="1">
+        <v>1792</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
       <c r="A21" s="1">
         <v>18</v>
       </c>
       <c r="B21" s="1">
-        <v>270</v>
+        <v>37</v>
       </c>
       <c r="C21" s="1">
-        <v>1080</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
+        <v>3202</v>
+      </c>
+      <c r="D21" s="1">
+        <v>1912</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
       <c r="A22" s="1">
         <v>19</v>
       </c>
       <c r="B22" s="1">
-        <v>285</v>
+        <v>38</v>
       </c>
       <c r="C22" s="1">
-        <v>1140</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
+        <v>3214</v>
+      </c>
+      <c r="D22" s="1">
+        <v>2034</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
       <c r="A23" s="1">
         <v>20</v>
       </c>
       <c r="B23" s="1">
-        <v>300</v>
+        <v>39</v>
       </c>
       <c r="C23" s="1">
-        <v>1200</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
+        <v>3226</v>
+      </c>
+      <c r="D23" s="1">
+        <v>2158</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
       <c r="A24" s="1">
         <v>21</v>
       </c>
       <c r="B24" s="1">
-        <v>315</v>
+        <v>40</v>
       </c>
       <c r="C24" s="1">
-        <v>1260</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
+        <v>3238</v>
+      </c>
+      <c r="D24" s="1">
+        <v>2284</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
       <c r="A25" s="1">
         <v>22</v>
       </c>
       <c r="B25" s="1">
-        <v>330</v>
+        <v>41</v>
       </c>
       <c r="C25" s="1">
-        <v>1320</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
+        <v>3250</v>
+      </c>
+      <c r="D25" s="1">
+        <v>2412</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
       <c r="A26" s="1">
         <v>23</v>
       </c>
       <c r="B26" s="1">
-        <v>345</v>
+        <v>42</v>
       </c>
       <c r="C26" s="1">
-        <v>1380</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
+        <v>3262</v>
+      </c>
+      <c r="D26" s="1">
+        <v>2542</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
       <c r="A27" s="1">
         <v>24</v>
       </c>
       <c r="B27" s="1">
-        <v>360</v>
+        <v>43</v>
       </c>
       <c r="C27" s="1">
-        <v>1440</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
+        <v>3274</v>
+      </c>
+      <c r="D27" s="1">
+        <v>2674</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
       <c r="A28" s="1">
         <v>25</v>
       </c>
       <c r="B28" s="1">
-        <v>375</v>
+        <v>44</v>
       </c>
       <c r="C28" s="1">
-        <v>1500</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
+        <v>3286</v>
+      </c>
+      <c r="D28" s="1">
+        <v>2808</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
       <c r="A29" s="1">
         <v>26</v>
       </c>
       <c r="B29" s="1">
-        <v>390</v>
+        <v>45</v>
       </c>
       <c r="C29" s="1">
-        <v>1560</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
+        <v>3298</v>
+      </c>
+      <c r="D29" s="1">
+        <v>2944</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
       <c r="A30" s="1">
         <v>27</v>
       </c>
       <c r="B30" s="1">
-        <v>405</v>
+        <v>46</v>
       </c>
       <c r="C30" s="1">
-        <v>1620</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
+        <v>3310</v>
+      </c>
+      <c r="D30" s="1">
+        <v>3082</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
       <c r="A31" s="1">
         <v>28</v>
       </c>
       <c r="B31" s="1">
-        <v>420</v>
+        <v>47</v>
       </c>
       <c r="C31" s="1">
-        <v>1680</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
+        <v>3322</v>
+      </c>
+      <c r="D31" s="1">
+        <v>3222</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
       <c r="A32" s="1">
         <v>29</v>
       </c>
       <c r="B32" s="1">
-        <v>435</v>
+        <v>48</v>
       </c>
       <c r="C32" s="1">
-        <v>1740</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
+        <v>3334</v>
+      </c>
+      <c r="D32" s="1">
+        <v>3364</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
       <c r="A33" s="1">
         <v>30</v>
       </c>
       <c r="B33" s="1">
-        <v>450</v>
+        <v>49</v>
       </c>
       <c r="C33" s="1">
-        <v>1800</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
+        <v>3346</v>
+      </c>
+      <c r="D33" s="1">
+        <v>3508</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
       <c r="A34" s="1">
         <v>31</v>
       </c>
       <c r="B34" s="1">
-        <v>465</v>
+        <v>50</v>
       </c>
       <c r="C34" s="1">
-        <v>1860</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
+        <v>3358</v>
+      </c>
+      <c r="D34" s="1">
+        <v>3654</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
       <c r="A35" s="1">
         <v>32</v>
       </c>
       <c r="B35" s="1">
-        <v>480</v>
+        <v>51</v>
       </c>
       <c r="C35" s="1">
-        <v>1920</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
+        <v>3370</v>
+      </c>
+      <c r="D35" s="1">
+        <v>3802</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
       <c r="A36" s="1">
         <v>33</v>
       </c>
       <c r="B36" s="1">
-        <v>495</v>
+        <v>52</v>
       </c>
       <c r="C36" s="1">
-        <v>1980</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
+        <v>3382</v>
+      </c>
+      <c r="D36" s="1">
+        <v>3952</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
       <c r="A37" s="1">
         <v>34</v>
       </c>
       <c r="B37" s="1">
-        <v>510</v>
+        <v>53</v>
       </c>
       <c r="C37" s="1">
-        <v>2040</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3">
+        <v>3394</v>
+      </c>
+      <c r="D37" s="1">
+        <v>4104</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
       <c r="A38" s="1">
         <v>35</v>
       </c>
       <c r="B38" s="1">
-        <v>525</v>
+        <v>54</v>
       </c>
       <c r="C38" s="1">
-        <v>2100</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3">
+        <v>3406</v>
+      </c>
+      <c r="D38" s="1">
+        <v>4258</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
       <c r="A39" s="1">
         <v>36</v>
       </c>
       <c r="B39" s="1">
-        <v>540</v>
+        <v>55</v>
       </c>
       <c r="C39" s="1">
-        <v>2160</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
+        <v>3418</v>
+      </c>
+      <c r="D39" s="1">
+        <v>4414</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
       <c r="A40" s="1">
         <v>37</v>
       </c>
       <c r="B40" s="1">
-        <v>555</v>
+        <v>56</v>
       </c>
       <c r="C40" s="1">
-        <v>2220</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
+        <v>3430</v>
+      </c>
+      <c r="D40" s="1">
+        <v>4572</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
       <c r="A41" s="1">
         <v>38</v>
       </c>
       <c r="B41" s="1">
-        <v>570</v>
+        <v>57</v>
       </c>
       <c r="C41" s="1">
-        <v>2280</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3">
+        <v>3442</v>
+      </c>
+      <c r="D41" s="1">
+        <v>4732</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
       <c r="A42" s="1">
         <v>39</v>
       </c>
       <c r="B42" s="1">
-        <v>585</v>
+        <v>58</v>
       </c>
       <c r="C42" s="1">
-        <v>2340</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3">
+        <v>3454</v>
+      </c>
+      <c r="D42" s="1">
+        <v>4894</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
       <c r="A43" s="1">
         <v>40</v>
       </c>
       <c r="B43" s="1">
-        <v>600</v>
+        <v>59</v>
       </c>
       <c r="C43" s="1">
-        <v>2400</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3">
+        <v>3466</v>
+      </c>
+      <c r="D43" s="1">
+        <v>5058</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
       <c r="A44" s="1">
         <v>41</v>
       </c>
       <c r="B44" s="1">
-        <v>615</v>
+        <v>60</v>
       </c>
       <c r="C44" s="1">
-        <v>2460</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3">
+        <v>3478</v>
+      </c>
+      <c r="D44" s="1">
+        <v>5224</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
       <c r="A45" s="1">
         <v>42</v>
       </c>
       <c r="B45" s="1">
-        <v>630</v>
+        <v>61</v>
       </c>
       <c r="C45" s="1">
-        <v>2520</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3">
+        <v>3490</v>
+      </c>
+      <c r="D45" s="1">
+        <v>5392</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
       <c r="A46" s="1">
         <v>43</v>
       </c>
       <c r="B46" s="1">
-        <v>645</v>
+        <v>62</v>
       </c>
       <c r="C46" s="1">
-        <v>2580</v>
+        <v>3502</v>
+      </c>
+      <c r="D46" s="1">
+        <v>5562</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
@@ -1546,15 +1693,15 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
   <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
@@ -1562,9 +1709,9 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
   <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
 </worksheet>
 </file>
--- a/DestroyViruses/Assets/Tables/TableFireSpeed.xlsx
+++ b/DestroyViruses/Assets/Tables/TableFireSpeed.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24560" windowHeight="8360"/>
+    <workbookView windowWidth="18588" windowHeight="9995"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
   <si>
     <t>id</t>
   </si>
@@ -54,9 +54,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -74,13 +74,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -89,6 +82,22 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -102,6 +111,37 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -111,7 +151,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -119,17 +159,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -141,6 +173,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -149,9 +188,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -164,32 +202,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -202,20 +216,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -226,25 +226,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -256,157 +382,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -420,11 +420,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -434,6 +455,15 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -453,36 +483,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -490,6 +490,15 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -508,160 +517,151 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -671,54 +671,54 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
-    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
-    <cellStyle name="输入" xfId="4" builtinId="20"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
-    <cellStyle name="货币" xfId="7" builtinId="4"/>
-    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
-    <cellStyle name="百分比" xfId="9" builtinId="5"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
-    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
-    <cellStyle name="计算" xfId="15" builtinId="22"/>
-    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
-    <cellStyle name="适中" xfId="17" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
-    <cellStyle name="好" xfId="19" builtinId="26"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="差" xfId="22" builtinId="27"/>
-    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
     <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
-    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
-    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
-    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
-    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
-    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
-    <cellStyle name="标题" xfId="33" builtinId="15"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
-    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="注释" xfId="37" builtinId="10"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
-    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
-    <cellStyle name="超链接" xfId="41" builtinId="8"/>
-    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
-    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
     <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
     <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
-    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1014,19 +1014,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J46"/>
+  <dimension ref="A1:D46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="3" width="12.125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="13.875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.6666666666667" style="1" customWidth="1"/>
+    <col min="3" max="3" width="22.5555555555556" style="1" customWidth="1"/>
+    <col min="4" max="4" width="9.66666666666667" style="1" customWidth="1"/>
     <col min="5" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -1077,13 +1078,13 @@
         <v>1</v>
       </c>
       <c r="B4" s="1">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="C4" s="1">
-        <v>3000</v>
+        <v>1750</v>
       </c>
       <c r="D4" s="1">
-        <v>144</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1091,13 +1092,13 @@
         <v>2</v>
       </c>
       <c r="B5" s="1">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C5" s="1">
-        <v>3010</v>
+        <v>1500</v>
       </c>
       <c r="D5" s="1">
-        <v>232</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1105,13 +1106,13 @@
         <v>3</v>
       </c>
       <c r="B6" s="1">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C6" s="1">
-        <v>3022</v>
+        <v>2000</v>
       </c>
       <c r="D6" s="1">
-        <v>322</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1119,13 +1120,13 @@
         <v>4</v>
       </c>
       <c r="B7" s="1">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C7" s="1">
-        <v>3034</v>
+        <v>2500</v>
       </c>
       <c r="D7" s="1">
-        <v>414</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1133,13 +1134,13 @@
         <v>5</v>
       </c>
       <c r="B8" s="1">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C8" s="1">
-        <v>3046</v>
+        <v>3000</v>
       </c>
       <c r="D8" s="1">
-        <v>508</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1147,30 +1148,27 @@
         <v>6</v>
       </c>
       <c r="B9" s="1">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C9" s="1">
-        <v>3058</v>
+        <v>3500</v>
       </c>
       <c r="D9" s="1">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" s="1">
         <v>7</v>
       </c>
       <c r="B10" s="1">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C10" s="1">
-        <v>3070</v>
+        <v>4000</v>
       </c>
       <c r="D10" s="1">
-        <v>702</v>
-      </c>
-      <c r="J10" s="1">
-        <v>1028</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1178,13 +1176,13 @@
         <v>8</v>
       </c>
       <c r="B11" s="1">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="C11" s="1">
-        <v>3082</v>
+        <v>4500</v>
       </c>
       <c r="D11" s="1">
-        <v>802</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1192,13 +1190,13 @@
         <v>9</v>
       </c>
       <c r="B12" s="1">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="C12" s="1">
-        <v>3094</v>
+        <v>5000</v>
       </c>
       <c r="D12" s="1">
-        <v>904</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -1206,13 +1204,13 @@
         <v>10</v>
       </c>
       <c r="B13" s="1">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="C13" s="1">
-        <v>3106</v>
+        <v>5500</v>
       </c>
       <c r="D13" s="1">
-        <v>1008</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -1223,10 +1221,10 @@
         <v>30</v>
       </c>
       <c r="C14" s="1">
-        <v>3118</v>
+        <v>3000</v>
       </c>
       <c r="D14" s="1">
-        <v>1114</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -1234,13 +1232,13 @@
         <v>12</v>
       </c>
       <c r="B15" s="1">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="C15" s="1">
-        <v>3130</v>
+        <v>3000</v>
       </c>
       <c r="D15" s="1">
-        <v>1222</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -1248,13 +1246,13 @@
         <v>13</v>
       </c>
       <c r="B16" s="1">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="C16" s="1">
-        <v>3142</v>
+        <v>3000</v>
       </c>
       <c r="D16" s="1">
-        <v>1332</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -1262,13 +1260,13 @@
         <v>14</v>
       </c>
       <c r="B17" s="1">
-        <v>33</v>
+        <v>60</v>
       </c>
       <c r="C17" s="1">
-        <v>3154</v>
+        <v>3000</v>
       </c>
       <c r="D17" s="1">
-        <v>1444</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -1276,13 +1274,13 @@
         <v>15</v>
       </c>
       <c r="B18" s="1">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="C18" s="1">
-        <v>3166</v>
+        <v>3000</v>
       </c>
       <c r="D18" s="1">
-        <v>1558</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -1290,13 +1288,13 @@
         <v>16</v>
       </c>
       <c r="B19" s="1">
-        <v>35</v>
+        <v>80</v>
       </c>
       <c r="C19" s="1">
-        <v>3178</v>
+        <v>3000</v>
       </c>
       <c r="D19" s="1">
-        <v>1674</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -1304,13 +1302,13 @@
         <v>17</v>
       </c>
       <c r="B20" s="1">
-        <v>36</v>
+        <v>90</v>
       </c>
       <c r="C20" s="1">
-        <v>3190</v>
+        <v>3000</v>
       </c>
       <c r="D20" s="1">
-        <v>1792</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -1318,13 +1316,13 @@
         <v>18</v>
       </c>
       <c r="B21" s="1">
-        <v>37</v>
+        <v>100</v>
       </c>
       <c r="C21" s="1">
-        <v>3202</v>
+        <v>3000</v>
       </c>
       <c r="D21" s="1">
-        <v>1912</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -1332,13 +1330,13 @@
         <v>19</v>
       </c>
       <c r="B22" s="1">
-        <v>38</v>
+        <v>110</v>
       </c>
       <c r="C22" s="1">
-        <v>3214</v>
+        <v>3000</v>
       </c>
       <c r="D22" s="1">
-        <v>2034</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -1346,13 +1344,13 @@
         <v>20</v>
       </c>
       <c r="B23" s="1">
-        <v>39</v>
+        <v>120</v>
       </c>
       <c r="C23" s="1">
-        <v>3226</v>
+        <v>3000</v>
       </c>
       <c r="D23" s="1">
-        <v>2158</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -1360,13 +1358,13 @@
         <v>21</v>
       </c>
       <c r="B24" s="1">
-        <v>40</v>
+        <v>150</v>
       </c>
       <c r="C24" s="1">
-        <v>3238</v>
+        <v>3000</v>
       </c>
       <c r="D24" s="1">
-        <v>2284</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -1374,13 +1372,13 @@
         <v>22</v>
       </c>
       <c r="B25" s="1">
-        <v>41</v>
+        <v>200</v>
       </c>
       <c r="C25" s="1">
-        <v>3250</v>
+        <v>3000</v>
       </c>
       <c r="D25" s="1">
-        <v>2412</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -1388,13 +1386,13 @@
         <v>23</v>
       </c>
       <c r="B26" s="1">
-        <v>42</v>
+        <v>250</v>
       </c>
       <c r="C26" s="1">
-        <v>3262</v>
+        <v>3000</v>
       </c>
       <c r="D26" s="1">
-        <v>2542</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -1402,13 +1400,13 @@
         <v>24</v>
       </c>
       <c r="B27" s="1">
-        <v>43</v>
+        <v>300</v>
       </c>
       <c r="C27" s="1">
-        <v>3274</v>
+        <v>3000</v>
       </c>
       <c r="D27" s="1">
-        <v>2674</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -1416,13 +1414,13 @@
         <v>25</v>
       </c>
       <c r="B28" s="1">
-        <v>44</v>
+        <v>350</v>
       </c>
       <c r="C28" s="1">
-        <v>3286</v>
+        <v>3000</v>
       </c>
       <c r="D28" s="1">
-        <v>2808</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -1430,13 +1428,13 @@
         <v>26</v>
       </c>
       <c r="B29" s="1">
-        <v>45</v>
+        <v>400</v>
       </c>
       <c r="C29" s="1">
-        <v>3298</v>
+        <v>3000</v>
       </c>
       <c r="D29" s="1">
-        <v>2944</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -1444,13 +1442,13 @@
         <v>27</v>
       </c>
       <c r="B30" s="1">
-        <v>46</v>
+        <v>450</v>
       </c>
       <c r="C30" s="1">
-        <v>3310</v>
+        <v>3000</v>
       </c>
       <c r="D30" s="1">
-        <v>3082</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -1458,13 +1456,13 @@
         <v>28</v>
       </c>
       <c r="B31" s="1">
-        <v>47</v>
+        <v>500</v>
       </c>
       <c r="C31" s="1">
-        <v>3322</v>
+        <v>3000</v>
       </c>
       <c r="D31" s="1">
-        <v>3222</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -1472,13 +1470,13 @@
         <v>29</v>
       </c>
       <c r="B32" s="1">
-        <v>48</v>
+        <v>550</v>
       </c>
       <c r="C32" s="1">
-        <v>3334</v>
+        <v>3000</v>
       </c>
       <c r="D32" s="1">
-        <v>3364</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -1486,13 +1484,13 @@
         <v>30</v>
       </c>
       <c r="B33" s="1">
-        <v>49</v>
+        <v>600</v>
       </c>
       <c r="C33" s="1">
-        <v>3346</v>
+        <v>3000</v>
       </c>
       <c r="D33" s="1">
-        <v>3508</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -1500,13 +1498,13 @@
         <v>31</v>
       </c>
       <c r="B34" s="1">
-        <v>50</v>
+        <v>700</v>
       </c>
       <c r="C34" s="1">
-        <v>3358</v>
+        <v>3000</v>
       </c>
       <c r="D34" s="1">
-        <v>3654</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -1514,13 +1512,13 @@
         <v>32</v>
       </c>
       <c r="B35" s="1">
-        <v>51</v>
+        <v>800</v>
       </c>
       <c r="C35" s="1">
-        <v>3370</v>
+        <v>3000</v>
       </c>
       <c r="D35" s="1">
-        <v>3802</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -1528,13 +1526,13 @@
         <v>33</v>
       </c>
       <c r="B36" s="1">
-        <v>52</v>
+        <v>900</v>
       </c>
       <c r="C36" s="1">
-        <v>3382</v>
+        <v>3000</v>
       </c>
       <c r="D36" s="1">
-        <v>3952</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -1542,13 +1540,13 @@
         <v>34</v>
       </c>
       <c r="B37" s="1">
-        <v>53</v>
+        <v>1000</v>
       </c>
       <c r="C37" s="1">
-        <v>3394</v>
+        <v>3000</v>
       </c>
       <c r="D37" s="1">
-        <v>4104</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -1556,13 +1554,13 @@
         <v>35</v>
       </c>
       <c r="B38" s="1">
-        <v>54</v>
+        <v>1200</v>
       </c>
       <c r="C38" s="1">
-        <v>3406</v>
+        <v>3000</v>
       </c>
       <c r="D38" s="1">
-        <v>4258</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -1570,13 +1568,13 @@
         <v>36</v>
       </c>
       <c r="B39" s="1">
-        <v>55</v>
+        <v>1400</v>
       </c>
       <c r="C39" s="1">
-        <v>3418</v>
+        <v>3000</v>
       </c>
       <c r="D39" s="1">
-        <v>4414</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -1584,13 +1582,13 @@
         <v>37</v>
       </c>
       <c r="B40" s="1">
-        <v>56</v>
+        <v>1600</v>
       </c>
       <c r="C40" s="1">
-        <v>3430</v>
+        <v>3000</v>
       </c>
       <c r="D40" s="1">
-        <v>4572</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -1598,13 +1596,13 @@
         <v>38</v>
       </c>
       <c r="B41" s="1">
-        <v>57</v>
+        <v>1800</v>
       </c>
       <c r="C41" s="1">
-        <v>3442</v>
+        <v>3000</v>
       </c>
       <c r="D41" s="1">
-        <v>4732</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -1612,13 +1610,13 @@
         <v>39</v>
       </c>
       <c r="B42" s="1">
-        <v>58</v>
+        <v>2000</v>
       </c>
       <c r="C42" s="1">
-        <v>3454</v>
+        <v>3000</v>
       </c>
       <c r="D42" s="1">
-        <v>4894</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -1626,13 +1624,13 @@
         <v>40</v>
       </c>
       <c r="B43" s="1">
-        <v>59</v>
+        <v>2400</v>
       </c>
       <c r="C43" s="1">
-        <v>3466</v>
+        <v>3000</v>
       </c>
       <c r="D43" s="1">
-        <v>5058</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -1640,13 +1638,13 @@
         <v>41</v>
       </c>
       <c r="B44" s="1">
-        <v>60</v>
+        <v>2800</v>
       </c>
       <c r="C44" s="1">
-        <v>3478</v>
+        <v>3000</v>
       </c>
       <c r="D44" s="1">
-        <v>5224</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -1654,13 +1652,13 @@
         <v>42</v>
       </c>
       <c r="B45" s="1">
-        <v>61</v>
+        <v>3200</v>
       </c>
       <c r="C45" s="1">
-        <v>3490</v>
+        <v>3000</v>
       </c>
       <c r="D45" s="1">
-        <v>5392</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -1668,13 +1666,13 @@
         <v>43</v>
       </c>
       <c r="B46" s="1">
-        <v>62</v>
+        <v>3600</v>
       </c>
       <c r="C46" s="1">
-        <v>3502</v>
+        <v>3000</v>
       </c>
       <c r="D46" s="1">
-        <v>5562</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1685,7 +1683,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
@@ -1693,7 +1691,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
@@ -1701,7 +1699,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
@@ -1709,7 +1707,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>

--- a/DestroyViruses/Assets/Tables/TableFireSpeed.xlsx
+++ b/DestroyViruses/Assets/Tables/TableFireSpeed.xlsx
@@ -4,17 +4,17 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7860"/>
+    <workbookView windowWidth="21800" windowHeight="9180"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10">
   <si>
     <t>id</t>
   </si>
@@ -51,11 +51,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="176" formatCode="0_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -79,6 +79,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -86,9 +102,55 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -102,8 +164,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -114,14 +184,6 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -139,17 +201,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -159,60 +213,6 @@
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -225,13 +225,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -249,25 +357,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -279,37 +369,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -321,91 +405,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -416,6 +416,15 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -438,7 +447,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -450,15 +474,6 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -488,21 +503,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -521,148 +521,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -684,54 +684,54 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
+    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
+    <cellStyle name="输入" xfId="4" builtinId="20"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
+    <cellStyle name="货币" xfId="7" builtinId="4"/>
+    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
+    <cellStyle name="百分比" xfId="9" builtinId="5"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
+    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
+    <cellStyle name="计算" xfId="15" builtinId="22"/>
+    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
+    <cellStyle name="适中" xfId="17" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
+    <cellStyle name="好" xfId="19" builtinId="26"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="差" xfId="22" builtinId="27"/>
+    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
     <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
+    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
+    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
+    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
+    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
+    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
+    <cellStyle name="标题" xfId="33" builtinId="15"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
+    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="注释" xfId="37" builtinId="10"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
+    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
+    <cellStyle name="超链接" xfId="41" builtinId="8"/>
+    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
+    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
     <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
     <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
+    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -998,15 +998,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:G363"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G330" sqref="G329:G330"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="10.875" style="1" customWidth="1"/>
     <col min="2" max="2" width="15.125" style="1" customWidth="1"/>
@@ -1041,7 +1041,7 @@
         <v>5</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:4">
